--- a/data_results/resultados_pessimista_pyomo.xlsx
+++ b/data_results/resultados_pessimista_pyomo.xlsx
@@ -549,7 +549,7 @@
         <v>0.57329664</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00065994</v>
+        <v>0.00117683</v>
       </c>
     </row>
   </sheetData>
